--- a/src/Languages.xlsx
+++ b/src/Languages.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="1458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2935" uniqueCount="1497">
   <si>
     <t>Project</t>
   </si>
@@ -3873,21 +3873,6 @@
     <t>Delete record</t>
   </si>
   <si>
-    <t>msgEdicionRegistroTitulo</t>
-  </si>
-  <si>
-    <t>Edición de registro</t>
-  </si>
-  <si>
-    <t>Record editing</t>
-  </si>
-  <si>
-    <t>msgEdicionRegistroValorVacio</t>
-  </si>
-  <si>
-    <t>msgEdicionRegistroValorRepetido</t>
-  </si>
-  <si>
     <t>No se admiten valores vacíos</t>
   </si>
   <si>
@@ -4393,6 +4378,138 @@
   </si>
   <si>
     <t>Download Traffic Fines</t>
+  </si>
+  <si>
+    <t>msgError157</t>
+  </si>
+  <si>
+    <t>No se puede convertir un texto a formato de fecha</t>
+  </si>
+  <si>
+    <t>No es pot convertir un texte a format de data</t>
+  </si>
+  <si>
+    <t>Cannot convert a text to a date</t>
+  </si>
+  <si>
+    <t>msgError193</t>
+  </si>
+  <si>
+    <t>Primary key already exists</t>
+  </si>
+  <si>
+    <t>Clave primaria ya existe</t>
+  </si>
+  <si>
+    <t>Clau primària ja existeix</t>
+  </si>
+  <si>
+    <t>msgInsertarRegistroTitulo</t>
+  </si>
+  <si>
+    <t>Insertar registro</t>
+  </si>
+  <si>
+    <t>Insertar registre</t>
+  </si>
+  <si>
+    <t>Editar registro</t>
+  </si>
+  <si>
+    <t>Editar registre</t>
+  </si>
+  <si>
+    <t>Insert record</t>
+  </si>
+  <si>
+    <t>Edit record</t>
+  </si>
+  <si>
+    <t>El código ya existe</t>
+  </si>
+  <si>
+    <t>No s'admeten valors buits en el camp codi</t>
+  </si>
+  <si>
+    <t>No se admiten valores vacíos en el campo código</t>
+  </si>
+  <si>
+    <t>Empty values in field code are not allowed</t>
+  </si>
+  <si>
+    <t>El codi ja existeix</t>
+  </si>
+  <si>
+    <t>Code already exist</t>
+  </si>
+  <si>
+    <t>msgEditarRegistroTitulo</t>
+  </si>
+  <si>
+    <t>msgEditarRegistroValorVacio</t>
+  </si>
+  <si>
+    <t>msgEditarRegistroValorRepetido</t>
+  </si>
+  <si>
+    <t>msgEditarRegistroCodigoVacio</t>
+  </si>
+  <si>
+    <t>msgEditarRegistroCodigoRepetido</t>
+  </si>
+  <si>
+    <t>No se admiten registros repetidos</t>
+  </si>
+  <si>
+    <t>No s'admeten registres repetits</t>
+  </si>
+  <si>
+    <t>Repeated records are not allowed</t>
+  </si>
+  <si>
+    <t>No se admiten resgistros repetidos</t>
+  </si>
+  <si>
+    <t>No se admiten valores vacíos en este campo</t>
+  </si>
+  <si>
+    <t>Empty values in this field are not allowed</t>
+  </si>
+  <si>
+    <t>No s'admeten valors buits en aquest camp</t>
+  </si>
+  <si>
+    <t>msgInsertarRegistroCampoVacio</t>
+  </si>
+  <si>
+    <t>msgInsertarRegistroRepetido</t>
+  </si>
+  <si>
+    <t>msgError683</t>
+  </si>
+  <si>
+    <t>String too long</t>
+  </si>
+  <si>
+    <t>Cadena de texto excede el tamaño establecido</t>
+  </si>
+  <si>
+    <t>String exceeds established size</t>
+  </si>
+  <si>
+    <t>Cadena de text excedeix la mida establerta</t>
+  </si>
+  <si>
+    <t>msgError158</t>
+  </si>
+  <si>
+    <t>Value out of range for destination</t>
+  </si>
+  <si>
+    <t>Valor fuera de rango</t>
+  </si>
+  <si>
+    <t>Valor fora de rang</t>
   </si>
 </sst>
 </file>
@@ -5268,11 +5385,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K355"/>
+  <dimension ref="A1:K364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A364" sqref="A364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5328,7 +5445,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>11</v>
@@ -5360,7 +5477,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
@@ -5392,7 +5509,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>11</v>
@@ -5424,7 +5541,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>11</v>
@@ -5456,7 +5573,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>11</v>
@@ -5488,7 +5605,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>11</v>
@@ -5520,7 +5637,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
@@ -5552,7 +5669,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
@@ -5584,7 +5701,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
@@ -5616,7 +5733,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>11</v>
@@ -5648,7 +5765,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>11</v>
@@ -5680,7 +5797,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -5712,7 +5829,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>11</v>
@@ -5744,7 +5861,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -5776,7 +5893,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -5808,7 +5925,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
@@ -5840,7 +5957,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
@@ -5872,7 +5989,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
@@ -5904,7 +6021,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -5936,7 +6053,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -5968,7 +6085,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>11</v>
@@ -6000,7 +6117,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
@@ -6032,7 +6149,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>11</v>
@@ -6064,7 +6181,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>11</v>
@@ -6096,13 +6213,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>802</v>
@@ -6132,7 +6249,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>11</v>
@@ -6168,7 +6285,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>11</v>
@@ -6200,7 +6317,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>11</v>
@@ -6232,13 +6349,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>806</v>
@@ -6264,13 +6381,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>806</v>
@@ -6296,7 +6413,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>11</v>
@@ -6305,7 +6422,7 @@
         <v>1018</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>145</v>
@@ -6328,7 +6445,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>11</v>
@@ -6337,7 +6454,7 @@
         <v>1019</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>146</v>
@@ -6360,7 +6477,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>11</v>
@@ -6392,7 +6509,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>11</v>
@@ -6401,7 +6518,7 @@
         <v>1020</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>147</v>
@@ -6424,7 +6541,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>11</v>
@@ -6433,7 +6550,7 @@
         <v>1021</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>148</v>
@@ -6456,7 +6573,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>11</v>
@@ -6465,7 +6582,7 @@
         <v>1267</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>1270</v>
@@ -6488,7 +6605,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>11</v>
@@ -6497,7 +6614,7 @@
         <v>1022</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>149</v>
@@ -6520,7 +6637,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>11</v>
@@ -6552,7 +6669,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>11</v>
@@ -6584,7 +6701,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>11</v>
@@ -6593,7 +6710,7 @@
         <v>1023</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>150</v>
@@ -6616,7 +6733,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>11</v>
@@ -6625,7 +6742,7 @@
         <v>1024</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>151</v>
@@ -6648,7 +6765,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>11</v>
@@ -6657,7 +6774,7 @@
         <v>1025</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>152</v>
@@ -6680,7 +6797,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>11</v>
@@ -6689,7 +6806,7 @@
         <v>1026</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>153</v>
@@ -6712,7 +6829,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>11</v>
@@ -6721,7 +6838,7 @@
         <v>1027</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>164</v>
@@ -6744,7 +6861,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>11</v>
@@ -6753,7 +6870,7 @@
         <v>1028</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>154</v>
@@ -6776,7 +6893,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>11</v>
@@ -6785,7 +6902,7 @@
         <v>1029</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>155</v>
@@ -6808,7 +6925,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>11</v>
@@ -6817,7 +6934,7 @@
         <v>1030</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>156</v>
@@ -6840,7 +6957,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>11</v>
@@ -6849,7 +6966,7 @@
         <v>1031</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>157</v>
@@ -6872,7 +6989,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>11</v>
@@ -6881,7 +6998,7 @@
         <v>1032</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>158</v>
@@ -6904,7 +7021,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>11</v>
@@ -6913,7 +7030,7 @@
         <v>1033</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>159</v>
@@ -6936,7 +7053,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>11</v>
@@ -6945,7 +7062,7 @@
         <v>1034</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>160</v>
@@ -6968,7 +7085,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>11</v>
@@ -6977,7 +7094,7 @@
         <v>1035</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>161</v>
@@ -7000,7 +7117,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>11</v>
@@ -7009,7 +7126,7 @@
         <v>1036</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>162</v>
@@ -7032,7 +7149,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>11</v>
@@ -7041,7 +7158,7 @@
         <v>1037</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>163</v>
@@ -7064,7 +7181,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>11</v>
@@ -7073,7 +7190,7 @@
         <v>1271</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>1272</v>
@@ -7096,13 +7213,13 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>809</v>
@@ -7128,13 +7245,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>809</v>
@@ -7160,7 +7277,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>11</v>
@@ -7192,7 +7309,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>11</v>
@@ -7201,7 +7318,7 @@
         <v>1038</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>205</v>
@@ -7224,7 +7341,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>11</v>
@@ -7233,7 +7350,7 @@
         <v>1039</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>38</v>
@@ -7256,16 +7373,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>232</v>
@@ -7288,16 +7405,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>232</v>
@@ -7320,7 +7437,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>11</v>
@@ -7329,7 +7446,7 @@
         <v>1040</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>233</v>
@@ -7352,7 +7469,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>11</v>
@@ -7361,7 +7478,7 @@
         <v>1041</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>234</v>
@@ -7384,7 +7501,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>11</v>
@@ -7393,7 +7510,7 @@
         <v>1042</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>235</v>
@@ -7416,7 +7533,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>11</v>
@@ -7425,7 +7542,7 @@
         <v>1043</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>236</v>
@@ -7448,7 +7565,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>11</v>
@@ -7457,7 +7574,7 @@
         <v>1044</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>237</v>
@@ -7480,7 +7597,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>11</v>
@@ -7489,7 +7606,7 @@
         <v>1045</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>238</v>
@@ -7512,7 +7629,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>11</v>
@@ -7521,7 +7638,7 @@
         <v>1046</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>239</v>
@@ -7544,16 +7661,16 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>440</v>
@@ -7576,16 +7693,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>440</v>
@@ -7608,7 +7725,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>11</v>
@@ -7617,7 +7734,7 @@
         <v>1047</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>94</v>
@@ -7640,7 +7757,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>11</v>
@@ -7649,7 +7766,7 @@
         <v>1048</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>232</v>
@@ -7672,7 +7789,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>11</v>
@@ -7681,7 +7798,7 @@
         <v>1049</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>104</v>
@@ -7704,7 +7821,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>11</v>
@@ -7713,7 +7830,7 @@
         <v>1050</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>265</v>
@@ -7736,13 +7853,13 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>810</v>
@@ -7768,13 +7885,13 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>810</v>
@@ -7800,7 +7917,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>11</v>
@@ -7809,7 +7926,7 @@
         <v>1051</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>256</v>
@@ -7832,7 +7949,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>11</v>
@@ -7841,7 +7958,7 @@
         <v>1052</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>257</v>
@@ -7864,7 +7981,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>11</v>
@@ -7896,7 +8013,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>11</v>
@@ -7905,7 +8022,7 @@
         <v>1053</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>258</v>
@@ -7928,16 +8045,16 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>265</v>
@@ -7960,16 +8077,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>265</v>
@@ -7992,7 +8109,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>11</v>
@@ -8001,7 +8118,7 @@
         <v>1054</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>266</v>
@@ -8024,7 +8141,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>11</v>
@@ -8033,7 +8150,7 @@
         <v>1055</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>267</v>
@@ -8056,7 +8173,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>11</v>
@@ -8065,7 +8182,7 @@
         <v>1056</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>268</v>
@@ -8088,7 +8205,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>11</v>
@@ -8097,7 +8214,7 @@
         <v>1057</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>269</v>
@@ -8120,13 +8237,13 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>811</v>
@@ -8152,13 +8269,13 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>811</v>
@@ -8184,7 +8301,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>11</v>
@@ -8216,7 +8333,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>11</v>
@@ -8225,7 +8342,7 @@
         <v>1058</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>270</v>
@@ -8248,7 +8365,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>11</v>
@@ -8280,7 +8397,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>11</v>
@@ -8289,7 +8406,7 @@
         <v>1059</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>271</v>
@@ -8312,7 +8429,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>11</v>
@@ -8344,7 +8461,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>11</v>
@@ -8376,7 +8493,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>11</v>
@@ -8408,7 +8525,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>11</v>
@@ -8440,7 +8557,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>11</v>
@@ -8472,7 +8589,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>11</v>
@@ -8504,13 +8621,13 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>819</v>
@@ -8536,13 +8653,13 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>819</v>
@@ -8568,7 +8685,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>11</v>
@@ -8577,7 +8694,7 @@
         <v>1060</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>272</v>
@@ -8600,7 +8717,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>11</v>
@@ -8609,7 +8726,7 @@
         <v>1061</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>273</v>
@@ -8632,7 +8749,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>11</v>
@@ -8664,7 +8781,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>11</v>
@@ -8673,7 +8790,7 @@
         <v>1062</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>274</v>
@@ -8696,7 +8813,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>11</v>
@@ -8705,7 +8822,7 @@
         <v>1063</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>275</v>
@@ -8728,7 +8845,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>11</v>
@@ -8737,7 +8854,7 @@
         <v>1064</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>276</v>
@@ -8760,7 +8877,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>11</v>
@@ -8769,7 +8886,7 @@
         <v>1065</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>277</v>
@@ -8792,7 +8909,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>11</v>
@@ -8801,7 +8918,7 @@
         <v>1066</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>282</v>
@@ -8824,7 +8941,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>11</v>
@@ -8833,7 +8950,7 @@
         <v>1067</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>283</v>
@@ -8856,7 +8973,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>11</v>
@@ -8865,7 +8982,7 @@
         <v>1068</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>278</v>
@@ -8888,7 +9005,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>11</v>
@@ -8897,7 +9014,7 @@
         <v>1069</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>279</v>
@@ -8920,7 +9037,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>11</v>
@@ -8952,7 +9069,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>11</v>
@@ -8961,7 +9078,7 @@
         <v>1070</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>284</v>
@@ -8984,7 +9101,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>11</v>
@@ -8993,7 +9110,7 @@
         <v>1071</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>280</v>
@@ -9016,7 +9133,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>11</v>
@@ -9048,7 +9165,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>11</v>
@@ -9057,7 +9174,7 @@
         <v>1072</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>285</v>
@@ -9080,7 +9197,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>11</v>
@@ -9112,16 +9229,16 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>281</v>
@@ -9144,16 +9261,16 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>281</v>
@@ -9176,7 +9293,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>11</v>
@@ -9185,7 +9302,7 @@
         <v>1073</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>286</v>
@@ -9208,7 +9325,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>11</v>
@@ -9217,7 +9334,7 @@
         <v>1074</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>287</v>
@@ -9240,7 +9357,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>11</v>
@@ -9249,7 +9366,7 @@
         <v>1075</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>288</v>
@@ -9272,39 +9389,39 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="F125" s="4">
         <f>ROW()</f>
         <v>125</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="H125" s="4"/>
       <c r="I125" s="4" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="J125" s="4"/>
       <c r="K125" s="4" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>11</v>
@@ -9313,7 +9430,7 @@
         <v>1076</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>289</v>
@@ -9336,7 +9453,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>11</v>
@@ -9345,7 +9462,7 @@
         <v>1077</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>290</v>
@@ -9368,7 +9485,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>11</v>
@@ -9400,7 +9517,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>11</v>
@@ -9432,7 +9549,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>11</v>
@@ -9464,7 +9581,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>11</v>
@@ -9496,7 +9613,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>11</v>
@@ -9528,7 +9645,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>11</v>
@@ -9560,7 +9677,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>11</v>
@@ -9592,7 +9709,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>11</v>
@@ -9624,7 +9741,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>11</v>
@@ -9656,7 +9773,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>11</v>
@@ -9688,7 +9805,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>11</v>
@@ -9720,7 +9837,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>11</v>
@@ -9752,7 +9869,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>11</v>
@@ -9784,7 +9901,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>11</v>
@@ -9816,7 +9933,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>11</v>
@@ -9848,7 +9965,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>11</v>
@@ -9880,7 +9997,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>11</v>
@@ -9912,7 +10029,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>11</v>
@@ -9944,7 +10061,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>11</v>
@@ -9976,7 +10093,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>11</v>
@@ -10008,7 +10125,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>11</v>
@@ -10040,7 +10157,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>11</v>
@@ -10072,7 +10189,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>11</v>
@@ -10104,7 +10221,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>11</v>
@@ -10136,7 +10253,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>11</v>
@@ -10168,7 +10285,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>11</v>
@@ -10200,7 +10317,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>11</v>
@@ -10232,7 +10349,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>11</v>
@@ -10264,7 +10381,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>11</v>
@@ -10296,7 +10413,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>11</v>
@@ -10328,7 +10445,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B158" s="9" t="s">
         <v>11</v>
@@ -10360,7 +10477,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B159" s="9" t="s">
         <v>11</v>
@@ -10392,7 +10509,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B160" s="9" t="s">
         <v>11</v>
@@ -10424,7 +10541,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>11</v>
@@ -10456,7 +10573,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>11</v>
@@ -10488,7 +10605,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>11</v>
@@ -10520,7 +10637,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>11</v>
@@ -10552,7 +10669,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>11</v>
@@ -10584,7 +10701,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>11</v>
@@ -10616,7 +10733,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>11</v>
@@ -10648,7 +10765,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>11</v>
@@ -10680,7 +10797,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>11</v>
@@ -10712,7 +10829,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>11</v>
@@ -10744,7 +10861,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>11</v>
@@ -10776,7 +10893,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>11</v>
@@ -10808,7 +10925,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>11</v>
@@ -10840,7 +10957,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>11</v>
@@ -10872,7 +10989,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>11</v>
@@ -10904,7 +11021,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>11</v>
@@ -10936,7 +11053,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>11</v>
@@ -10968,7 +11085,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>11</v>
@@ -11000,7 +11117,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>11</v>
@@ -11032,7 +11149,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>11</v>
@@ -11064,7 +11181,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>11</v>
@@ -11096,7 +11213,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>11</v>
@@ -11128,7 +11245,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>11</v>
@@ -11160,7 +11277,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>11</v>
@@ -11192,7 +11309,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>11</v>
@@ -11224,7 +11341,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>11</v>
@@ -11256,7 +11373,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>11</v>
@@ -11288,7 +11405,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>11</v>
@@ -11320,7 +11437,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>11</v>
@@ -11352,7 +11469,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>11</v>
@@ -11384,7 +11501,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>11</v>
@@ -11416,7 +11533,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>11</v>
@@ -11448,7 +11565,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>11</v>
@@ -11480,7 +11597,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>11</v>
@@ -11512,7 +11629,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>11</v>
@@ -11544,7 +11661,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>11</v>
@@ -11576,7 +11693,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>11</v>
@@ -11608,7 +11725,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>11</v>
@@ -11640,7 +11757,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>11</v>
@@ -11672,7 +11789,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>11</v>
@@ -11704,7 +11821,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>11</v>
@@ -11736,7 +11853,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>11</v>
@@ -11768,7 +11885,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>11</v>
@@ -11800,7 +11917,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>11</v>
@@ -11832,7 +11949,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>11</v>
@@ -11864,7 +11981,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B206" s="9" t="s">
         <v>11</v>
@@ -11896,7 +12013,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B207" s="9" t="s">
         <v>11</v>
@@ -11928,7 +12045,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>11</v>
@@ -11960,7 +12077,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>11</v>
@@ -11992,7 +12109,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>11</v>
@@ -12024,7 +12141,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>11</v>
@@ -12056,7 +12173,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>11</v>
@@ -12088,7 +12205,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>11</v>
@@ -12120,7 +12237,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>11</v>
@@ -12152,7 +12269,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>11</v>
@@ -12184,7 +12301,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>11</v>
@@ -12216,7 +12333,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>11</v>
@@ -12248,7 +12365,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>11</v>
@@ -12280,7 +12397,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>11</v>
@@ -12312,7 +12429,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>11</v>
@@ -12344,7 +12461,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>11</v>
@@ -12376,7 +12493,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>11</v>
@@ -12408,7 +12525,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>11</v>
@@ -12440,7 +12557,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>11</v>
@@ -12472,7 +12589,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>11</v>
@@ -12504,7 +12621,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>11</v>
@@ -12536,7 +12653,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>11</v>
@@ -12568,7 +12685,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>11</v>
@@ -12600,7 +12717,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>11</v>
@@ -12632,7 +12749,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>11</v>
@@ -12664,7 +12781,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>11</v>
@@ -12696,7 +12813,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>11</v>
@@ -12728,7 +12845,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>11</v>
@@ -12760,7 +12877,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B234" s="5" t="s">
         <v>11</v>
@@ -12792,7 +12909,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>11</v>
@@ -12824,7 +12941,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B236" s="5" t="s">
         <v>11</v>
@@ -12856,7 +12973,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>11</v>
@@ -12888,7 +13005,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>11</v>
@@ -12920,7 +13037,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>11</v>
@@ -12952,7 +13069,7 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>11</v>
@@ -12984,7 +13101,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>11</v>
@@ -13016,7 +13133,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B242" s="6" t="s">
         <v>11</v>
@@ -13048,7 +13165,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>11</v>
@@ -13080,7 +13197,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>11</v>
@@ -13112,7 +13229,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>11</v>
@@ -13144,7 +13261,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>11</v>
@@ -13176,7 +13293,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>11</v>
@@ -13208,7 +13325,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>11</v>
@@ -13240,7 +13357,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B249" s="7" t="s">
         <v>11</v>
@@ -13272,7 +13389,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B250" s="7" t="s">
         <v>11</v>
@@ -13304,7 +13421,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B251" s="7" t="s">
         <v>11</v>
@@ -13336,7 +13453,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B252" s="7" t="s">
         <v>11</v>
@@ -13368,7 +13485,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B253" s="7" t="s">
         <v>11</v>
@@ -13400,7 +13517,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B254" s="7" t="s">
         <v>11</v>
@@ -13432,7 +13549,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B255" s="7" t="s">
         <v>11</v>
@@ -13464,7 +13581,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B256" s="7" t="s">
         <v>11</v>
@@ -13496,7 +13613,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B257" s="7" t="s">
         <v>11</v>
@@ -13528,7 +13645,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B258" s="7" t="s">
         <v>11</v>
@@ -13560,7 +13677,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B259" s="7" t="s">
         <v>11</v>
@@ -13592,7 +13709,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B260" s="7" t="s">
         <v>11</v>
@@ -13624,71 +13741,71 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="E261" s="8" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F261" s="8">
+        <f>ROW()</f>
+        <v>261</v>
+      </c>
+      <c r="G261" s="8" t="s">
         <v>1440</v>
-      </c>
-      <c r="F261" s="8">
-        <f>ROW()</f>
-        <v>261</v>
-      </c>
-      <c r="G261" s="8" t="s">
-        <v>1445</v>
       </c>
       <c r="H261" s="8"/>
       <c r="I261" s="8" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="J261" s="8"/>
       <c r="K261" s="8" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B262" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="E262" s="8" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F262" s="8">
+        <f>ROW()</f>
+        <v>262</v>
+      </c>
+      <c r="G262" s="8" t="s">
         <v>1440</v>
-      </c>
-      <c r="F262" s="8">
-        <f>ROW()</f>
-        <v>262</v>
-      </c>
-      <c r="G262" s="8" t="s">
-        <v>1445</v>
       </c>
       <c r="H262" s="8"/>
       <c r="I262" s="8" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="J262" s="8"/>
       <c r="K262" s="8" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>11</v>
@@ -13697,7 +13814,7 @@
         <v>1152</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="E263" s="8" t="s">
         <v>584</v>
@@ -13711,7 +13828,7 @@
       </c>
       <c r="H263" s="8"/>
       <c r="I263" s="8" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="J263" s="8"/>
       <c r="K263" s="8" t="s">
@@ -13720,167 +13837,167 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="E264" s="8" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F264" s="8">
+        <f>ROW()</f>
+        <v>264</v>
+      </c>
+      <c r="G264" s="8" t="s">
         <v>1441</v>
-      </c>
-      <c r="F264" s="8">
-        <f>ROW()</f>
-        <v>264</v>
-      </c>
-      <c r="G264" s="8" t="s">
-        <v>1446</v>
       </c>
       <c r="H264" s="8"/>
       <c r="I264" s="8" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="J264" s="8"/>
       <c r="K264" s="8" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="E265" s="8" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F265" s="8">
+        <f>ROW()</f>
+        <v>265</v>
+      </c>
+      <c r="G265" s="8" t="s">
         <v>1442</v>
-      </c>
-      <c r="F265" s="8">
-        <f>ROW()</f>
-        <v>265</v>
-      </c>
-      <c r="G265" s="8" t="s">
-        <v>1447</v>
       </c>
       <c r="H265" s="8"/>
       <c r="I265" s="8" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="J265" s="8"/>
       <c r="K265" s="8" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="E266" s="8" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F266" s="8">
+        <f>ROW()</f>
+        <v>266</v>
+      </c>
+      <c r="G266" s="8" t="s">
         <v>1443</v>
-      </c>
-      <c r="F266" s="8">
-        <f>ROW()</f>
-        <v>266</v>
-      </c>
-      <c r="G266" s="8" t="s">
-        <v>1448</v>
       </c>
       <c r="H266" s="8"/>
       <c r="I266" s="8" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="J266" s="8"/>
       <c r="K266" s="8" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="F267" s="8">
         <f>ROW()</f>
         <v>267</v>
       </c>
       <c r="G267" s="8" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="H267" s="8"/>
       <c r="I267" s="8" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="J267" s="8"/>
       <c r="K267" s="8" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B268" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="F268" s="8">
         <f>ROW()</f>
         <v>268</v>
       </c>
       <c r="G268" s="8" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="H268" s="8"/>
       <c r="I268" s="8" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="J268" s="8"/>
       <c r="K268" s="8" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B269" s="5" t="s">
         <v>11</v>
@@ -13912,7 +14029,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B270" s="5" t="s">
         <v>11</v>
@@ -13944,7 +14061,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B271" s="5" t="s">
         <v>11</v>
@@ -13976,7 +14093,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B272" s="5" t="s">
         <v>11</v>
@@ -14008,7 +14125,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>11</v>
@@ -14040,7 +14157,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B274" s="5" t="s">
         <v>11</v>
@@ -14072,7 +14189,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B275" s="5" t="s">
         <v>11</v>
@@ -14104,7 +14221,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B276" s="5" t="s">
         <v>11</v>
@@ -14136,7 +14253,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B277" s="5" t="s">
         <v>11</v>
@@ -14168,7 +14285,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B278" s="5" t="s">
         <v>11</v>
@@ -14200,7 +14317,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B279" s="5" t="s">
         <v>11</v>
@@ -14232,7 +14349,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B280" s="5" t="s">
         <v>11</v>
@@ -14264,7 +14381,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B281" s="5" t="s">
         <v>11</v>
@@ -14296,7 +14413,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B282" s="5" t="s">
         <v>11</v>
@@ -14328,7 +14445,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B283" s="5" t="s">
         <v>11</v>
@@ -14360,7 +14477,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B284" s="9" t="s">
         <v>11</v>
@@ -14392,7 +14509,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B285" s="9" t="s">
         <v>11</v>
@@ -14424,7 +14541,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B286" s="9" t="s">
         <v>11</v>
@@ -14456,7 +14573,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>11</v>
@@ -14492,7 +14609,7 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>11</v>
@@ -14528,7 +14645,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>11</v>
@@ -14564,7 +14681,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>11</v>
@@ -14600,7 +14717,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>11</v>
@@ -14636,7 +14753,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>11</v>
@@ -14668,7 +14785,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>11</v>
@@ -14700,7 +14817,7 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>11</v>
@@ -14732,7 +14849,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>11</v>
@@ -14764,7 +14881,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B296" s="4" t="s">
         <v>11</v>
@@ -14796,7 +14913,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>11</v>
@@ -14828,7 +14945,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B298" s="4" t="s">
         <v>11</v>
@@ -14860,7 +14977,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B299" s="4" t="s">
         <v>11</v>
@@ -14892,7 +15009,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>11</v>
@@ -14924,7 +15041,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>11</v>
@@ -14956,7 +15073,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B302" s="4" t="s">
         <v>11</v>
@@ -14988,7 +15105,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B303" s="4" t="s">
         <v>11</v>
@@ -15020,7 +15137,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>11</v>
@@ -15052,7 +15169,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B305" s="4" t="s">
         <v>11</v>
@@ -15084,7 +15201,7 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B306" s="4" t="s">
         <v>11</v>
@@ -15116,7 +15233,7 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B307" s="4" t="s">
         <v>11</v>
@@ -15148,7 +15265,7 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B308" s="4" t="s">
         <v>11</v>
@@ -15180,7 +15297,7 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B309" s="4" t="s">
         <v>11</v>
@@ -15212,7 +15329,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B310" s="4" t="s">
         <v>11</v>
@@ -15244,7 +15361,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B311" s="4" t="s">
         <v>11</v>
@@ -15276,7 +15393,7 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B312" s="4" t="s">
         <v>11</v>
@@ -15308,7 +15425,7 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B313" s="5" t="s">
         <v>11</v>
@@ -15340,7 +15457,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B314" s="5" t="s">
         <v>11</v>
@@ -15372,7 +15489,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B315" s="5" t="s">
         <v>11</v>
@@ -15404,7 +15521,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B316" s="5" t="s">
         <v>11</v>
@@ -15436,7 +15553,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B317" s="5" t="s">
         <v>11</v>
@@ -15468,7 +15585,7 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B318" s="5" t="s">
         <v>11</v>
@@ -15500,7 +15617,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B319" s="5" t="s">
         <v>11</v>
@@ -15532,7 +15649,7 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B320" s="5" t="s">
         <v>11</v>
@@ -15564,7 +15681,7 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B321" s="5" t="s">
         <v>11</v>
@@ -15596,7 +15713,7 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B322" s="5" t="s">
         <v>11</v>
@@ -15628,7 +15745,7 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B323" s="5" t="s">
         <v>11</v>
@@ -15660,7 +15777,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B324" s="6" t="s">
         <v>11</v>
@@ -15692,7 +15809,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B325" s="6" t="s">
         <v>11</v>
@@ -15724,39 +15841,39 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B326" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="D326" s="7" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="E326" s="7" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="F326" s="7">
         <f>ROW()</f>
         <v>326</v>
       </c>
       <c r="G326" s="7" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="H326" s="7"/>
       <c r="I326" s="7" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="J326" s="7"/>
       <c r="K326" s="7" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B327" s="7" t="s">
         <v>11</v>
@@ -15792,39 +15909,39 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B328" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="D328" s="7" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="E328" s="7" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="F328" s="7">
         <f>ROW()</f>
         <v>328</v>
       </c>
       <c r="G328" s="7" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="H328" s="7"/>
       <c r="I328" s="7" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="J328" s="7"/>
       <c r="K328" s="7" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B329" s="7" t="s">
         <v>11</v>
@@ -15860,71 +15977,71 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B330" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C330" s="7" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D330" s="7" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E330" s="7" t="s">
         <v>1318</v>
       </c>
-      <c r="D330" s="7" t="s">
+      <c r="F330" s="7">
+        <f>ROW()</f>
+        <v>330</v>
+      </c>
+      <c r="G330" s="7" t="s">
         <v>1318</v>
-      </c>
-      <c r="E330" s="7" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F330" s="7">
-        <f>ROW()</f>
-        <v>330</v>
-      </c>
-      <c r="G330" s="7" t="s">
-        <v>1323</v>
       </c>
       <c r="H330" s="7"/>
       <c r="I330" s="7" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="J330" s="7"/>
       <c r="K330" s="7" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B331" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C331" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D331" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E331" s="7" t="s">
         <v>1316</v>
       </c>
-      <c r="D331" s="7" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E331" s="7" t="s">
-        <v>1321</v>
-      </c>
       <c r="F331" s="7">
         <f>ROW()</f>
         <v>331</v>
       </c>
       <c r="G331" s="7" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="H331" s="7"/>
       <c r="I331" s="7" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="J331" s="7"/>
       <c r="K331" s="7" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B332" s="7" t="s">
         <v>11</v>
@@ -15960,167 +16077,167 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B333" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="D333" s="7" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="E333" s="7" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="F333" s="7">
         <f>ROW()</f>
         <v>333</v>
       </c>
       <c r="G333" s="7" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="H333" s="7"/>
       <c r="I333" s="7" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="J333" s="7"/>
       <c r="K333" s="7" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B334" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="D334" s="7" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="E334" s="7" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="F334" s="7">
         <f>ROW()</f>
         <v>334</v>
       </c>
       <c r="G334" s="7" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="H334" s="7"/>
       <c r="I334" s="7" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="J334" s="7"/>
       <c r="K334" s="7" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B335" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C335" s="7" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D335" s="7" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E335" s="7" t="s">
         <v>1315</v>
       </c>
-      <c r="D335" s="7" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E335" s="7" t="s">
+      <c r="F335" s="7">
+        <f>ROW()</f>
+        <v>335</v>
+      </c>
+      <c r="G335" s="7" t="s">
         <v>1320</v>
-      </c>
-      <c r="F335" s="7">
-        <f>ROW()</f>
-        <v>335</v>
-      </c>
-      <c r="G335" s="7" t="s">
-        <v>1325</v>
       </c>
       <c r="H335" s="7"/>
       <c r="I335" s="7" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="J335" s="7"/>
       <c r="K335" s="7" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B336" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C336" s="7" t="s">
         <v>1295</v>
       </c>
-      <c r="B336" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C336" s="7" t="s">
-        <v>1300</v>
-      </c>
       <c r="D336" s="7" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="E336" s="7" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="F336" s="7">
         <f>ROW()</f>
         <v>336</v>
       </c>
       <c r="G336" s="7" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="H336" s="7"/>
       <c r="I336" s="7" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="J336" s="7"/>
       <c r="K336" s="7" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B337" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="D337" s="7" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="E337" s="7" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="F337" s="7">
         <f>ROW()</f>
         <v>337</v>
       </c>
       <c r="G337" s="7" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="H337" s="7"/>
       <c r="I337" s="7" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="J337" s="7"/>
       <c r="K337" s="7" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B338" s="7" t="s">
         <v>11</v>
@@ -16152,71 +16269,71 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B339" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="D339" s="7" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="E339" s="7" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="F339" s="7">
         <f>ROW()</f>
         <v>339</v>
       </c>
       <c r="G339" s="7" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="H339" s="7"/>
       <c r="I339" s="7" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="J339" s="7"/>
       <c r="K339" s="7" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B340" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C340" s="7" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D340" s="7" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E340" s="7" t="s">
         <v>1319</v>
       </c>
-      <c r="D340" s="7" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E340" s="7" t="s">
-        <v>1324</v>
-      </c>
       <c r="F340" s="7">
         <f>ROW()</f>
         <v>340</v>
       </c>
       <c r="G340" s="7" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="H340" s="7"/>
       <c r="I340" s="7" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="J340" s="7"/>
       <c r="K340" s="7" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B341" s="8" t="s">
         <v>11</v>
@@ -16248,7 +16365,7 @@
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B342" s="8" t="s">
         <v>11</v>
@@ -16280,7 +16397,7 @@
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B343" s="8" t="s">
         <v>11</v>
@@ -16312,7 +16429,7 @@
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B344" s="8" t="s">
         <v>11</v>
@@ -16344,354 +16461,642 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B345" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>1287</v>
+        <v>1475</v>
       </c>
       <c r="D345" s="8" t="s">
-        <v>1287</v>
+        <v>1475</v>
       </c>
       <c r="E345" s="8" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="F345" s="8">
         <f>ROW()</f>
         <v>345</v>
       </c>
       <c r="G345" s="8" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="H345" s="8"/>
       <c r="I345" s="8" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J345" s="8"/>
       <c r="K345" s="8" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B346" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C346" s="8" t="s">
-        <v>1288</v>
+        <v>1476</v>
       </c>
       <c r="D346" s="8" t="s">
-        <v>1288</v>
+        <v>1476</v>
       </c>
       <c r="E346" s="8" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="F346" s="8">
         <f>ROW()</f>
         <v>346</v>
       </c>
       <c r="G346" s="8" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="H346" s="8"/>
       <c r="I346" s="8" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="J346" s="8"/>
       <c r="K346" s="8" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="8" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B347" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C347" s="8" t="s">
-        <v>1284</v>
+        <v>1477</v>
       </c>
       <c r="D347" s="8" t="s">
-        <v>1284</v>
+        <v>1477</v>
       </c>
       <c r="E347" s="8" t="s">
-        <v>1285</v>
+        <v>1470</v>
       </c>
       <c r="F347" s="8">
         <f>ROW()</f>
         <v>347</v>
       </c>
       <c r="G347" s="8" t="s">
-        <v>1285</v>
+        <v>1469</v>
       </c>
       <c r="H347" s="8"/>
       <c r="I347" s="8" t="s">
-        <v>1286</v>
+        <v>1471</v>
       </c>
       <c r="J347" s="8"/>
       <c r="K347" s="8" t="s">
-        <v>1285</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A348" s="9" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B348" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C348" s="9" t="s">
+      <c r="A348" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C348" s="8" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D348" s="8" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E348" s="8" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F348" s="8">
+        <f>ROW()</f>
+        <v>348</v>
+      </c>
+      <c r="G348" s="8" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H348" s="8"/>
+      <c r="I348" s="8" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J348" s="8"/>
+      <c r="K348" s="8" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A349" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D349" s="8" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E349" s="8" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F349" s="8">
+        <f>ROW()</f>
+        <v>349</v>
+      </c>
+      <c r="G349" s="8" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H349" s="8"/>
+      <c r="I349" s="8" t="s">
+        <v>1467</v>
+      </c>
+      <c r="J349" s="8"/>
+      <c r="K349" s="8" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C350" s="8" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D350" s="8" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E350" s="8" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F350" s="8">
+        <f>ROW()</f>
+        <v>350</v>
+      </c>
+      <c r="G350" s="8" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H350" s="8"/>
+      <c r="I350" s="8" t="s">
+        <v>1484</v>
+      </c>
+      <c r="J350" s="8"/>
+      <c r="K350" s="8" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A351" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D351" s="8" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E351" s="8" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F351" s="8">
+        <f>ROW()</f>
+        <v>351</v>
+      </c>
+      <c r="G351" s="8" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H351" s="8"/>
+      <c r="I351" s="8" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J351" s="8"/>
+      <c r="K351" s="8" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A352" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C352" s="8" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D352" s="8" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E352" s="8" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F352" s="8">
+        <f>ROW()</f>
+        <v>352</v>
+      </c>
+      <c r="G352" s="8" t="s">
+        <v>1463</v>
+      </c>
+      <c r="H352" s="8"/>
+      <c r="I352" s="8" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J352" s="8"/>
+      <c r="K352" s="8" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A353" s="9" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B353" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C353" s="9" t="s">
         <v>1250</v>
       </c>
-      <c r="D348" s="9" t="s">
+      <c r="D353" s="9" t="s">
         <v>1237</v>
       </c>
-      <c r="E348" s="9" t="s">
+      <c r="E353" s="9" t="s">
         <v>1243</v>
       </c>
-      <c r="F348" s="9">
-        <f>ROW()</f>
-        <v>348</v>
-      </c>
-      <c r="G348" s="9" t="s">
+      <c r="F353" s="9">
+        <f>ROW()</f>
+        <v>353</v>
+      </c>
+      <c r="G353" s="9" t="s">
         <v>1244</v>
       </c>
-      <c r="H348" s="9"/>
-      <c r="I348" s="9" t="s">
+      <c r="H353" s="9"/>
+      <c r="I353" s="9" t="s">
         <v>1245</v>
       </c>
-      <c r="J348" s="9"/>
-      <c r="K348" s="9" t="s">
+      <c r="J353" s="9"/>
+      <c r="K353" s="9" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A349" s="9" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B349" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C349" s="9" t="s">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A354" s="9" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B354" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C354" s="9" t="s">
         <v>1249</v>
       </c>
-      <c r="D349" s="9" t="s">
+      <c r="D354" s="9" t="s">
         <v>1237</v>
       </c>
-      <c r="E349" s="9" t="s">
+      <c r="E354" s="9" t="s">
         <v>1246</v>
       </c>
-      <c r="F349" s="9">
-        <f>ROW()</f>
-        <v>349</v>
-      </c>
-      <c r="G349" s="9" t="s">
+      <c r="F354" s="9">
+        <f>ROW()</f>
+        <v>354</v>
+      </c>
+      <c r="G354" s="9" t="s">
         <v>1247</v>
       </c>
-      <c r="H349" s="9"/>
-      <c r="I349" s="9" t="s">
+      <c r="H354" s="9"/>
+      <c r="I354" s="9" t="s">
         <v>1248</v>
       </c>
-      <c r="J349" s="9"/>
-      <c r="K349" s="9" t="s">
+      <c r="J354" s="9"/>
+      <c r="K354" s="9" t="s">
         <v>1246</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A350" s="10" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B350" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C350" s="10" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D350" s="10" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E350" s="10" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F350" s="10">
-        <f>ROW()</f>
-        <v>350</v>
-      </c>
-      <c r="G350" s="10" t="s">
-        <v>1241</v>
-      </c>
-      <c r="H350" s="10"/>
-      <c r="I350" s="10" t="s">
-        <v>1242</v>
-      </c>
-      <c r="J350" s="10"/>
-      <c r="K350" s="10" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A351" s="10" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B351" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C351" s="10" t="s">
-        <v>964</v>
-      </c>
-      <c r="D351" s="10" t="s">
-        <v>965</v>
-      </c>
-      <c r="E351" s="10" t="s">
-        <v>967</v>
-      </c>
-      <c r="F351" s="10">
-        <f>ROW()</f>
-        <v>351</v>
-      </c>
-      <c r="G351" s="10" t="s">
-        <v>966</v>
-      </c>
-      <c r="H351" s="10"/>
-      <c r="I351" s="10" t="s">
-        <v>965</v>
-      </c>
-      <c r="J351" s="10"/>
-      <c r="K351" s="10" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A352" s="10" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B352" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C352" s="10" t="s">
-        <v>968</v>
-      </c>
-      <c r="D352" s="10" t="s">
-        <v>972</v>
-      </c>
-      <c r="E352" s="10" t="s">
-        <v>976</v>
-      </c>
-      <c r="F352" s="10">
-        <f>ROW()</f>
-        <v>352</v>
-      </c>
-      <c r="G352" s="10" t="s">
-        <v>977</v>
-      </c>
-      <c r="H352" s="10"/>
-      <c r="I352" s="10" t="s">
-        <v>972</v>
-      </c>
-      <c r="J352" s="10"/>
-      <c r="K352" s="10" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="10" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B353" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C353" s="10" t="s">
-        <v>969</v>
-      </c>
-      <c r="D353" s="10" t="s">
-        <v>973</v>
-      </c>
-      <c r="E353" s="10" t="s">
-        <v>983</v>
-      </c>
-      <c r="F353" s="10">
-        <f>ROW()</f>
-        <v>353</v>
-      </c>
-      <c r="G353" s="10" t="s">
-        <v>982</v>
-      </c>
-      <c r="H353" s="10"/>
-      <c r="I353" s="10" t="s">
-        <v>973</v>
-      </c>
-      <c r="J353" s="10"/>
-      <c r="K353" s="10" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A354" s="10" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B354" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C354" s="10" t="s">
-        <v>970</v>
-      </c>
-      <c r="D354" s="10" t="s">
-        <v>974</v>
-      </c>
-      <c r="E354" s="10" t="s">
-        <v>978</v>
-      </c>
-      <c r="F354" s="10">
-        <f>ROW()</f>
-        <v>354</v>
-      </c>
-      <c r="G354" s="10" t="s">
-        <v>981</v>
-      </c>
-      <c r="H354" s="10"/>
-      <c r="I354" s="10" t="s">
-        <v>974</v>
-      </c>
-      <c r="J354" s="10"/>
-      <c r="K354" s="10" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B355" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>971</v>
+        <v>1238</v>
       </c>
       <c r="D355" s="10" t="s">
-        <v>975</v>
+        <v>1239</v>
       </c>
       <c r="E355" s="10" t="s">
-        <v>979</v>
+        <v>1240</v>
       </c>
       <c r="F355" s="10">
         <f>ROW()</f>
         <v>355</v>
       </c>
       <c r="G355" s="10" t="s">
-        <v>980</v>
+        <v>1241</v>
       </c>
       <c r="H355" s="10"/>
       <c r="I355" s="10" t="s">
-        <v>975</v>
+        <v>1242</v>
       </c>
       <c r="J355" s="10"/>
       <c r="K355" s="10" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" s="10" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B356" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C356" s="10" t="s">
+        <v>964</v>
+      </c>
+      <c r="D356" s="10" t="s">
+        <v>965</v>
+      </c>
+      <c r="E356" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="F356" s="10">
+        <f>ROW()</f>
+        <v>356</v>
+      </c>
+      <c r="G356" s="10" t="s">
+        <v>966</v>
+      </c>
+      <c r="H356" s="10"/>
+      <c r="I356" s="10" t="s">
+        <v>965</v>
+      </c>
+      <c r="J356" s="10"/>
+      <c r="K356" s="10" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" s="10" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B357" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C357" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="D357" s="10" t="s">
+        <v>972</v>
+      </c>
+      <c r="E357" s="10" t="s">
+        <v>976</v>
+      </c>
+      <c r="F357" s="10">
+        <f>ROW()</f>
+        <v>357</v>
+      </c>
+      <c r="G357" s="10" t="s">
+        <v>977</v>
+      </c>
+      <c r="H357" s="10"/>
+      <c r="I357" s="10" t="s">
+        <v>972</v>
+      </c>
+      <c r="J357" s="10"/>
+      <c r="K357" s="10" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" s="10" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B358" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C358" s="10" t="s">
+        <v>969</v>
+      </c>
+      <c r="D358" s="10" t="s">
+        <v>973</v>
+      </c>
+      <c r="E358" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="F358" s="10">
+        <f>ROW()</f>
+        <v>358</v>
+      </c>
+      <c r="G358" s="10" t="s">
+        <v>982</v>
+      </c>
+      <c r="H358" s="10"/>
+      <c r="I358" s="10" t="s">
+        <v>973</v>
+      </c>
+      <c r="J358" s="10"/>
+      <c r="K358" s="10" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" s="10" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B359" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C359" s="10" t="s">
+        <v>970</v>
+      </c>
+      <c r="D359" s="10" t="s">
+        <v>974</v>
+      </c>
+      <c r="E359" s="10" t="s">
+        <v>978</v>
+      </c>
+      <c r="F359" s="10">
+        <f>ROW()</f>
+        <v>359</v>
+      </c>
+      <c r="G359" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="H359" s="10"/>
+      <c r="I359" s="10" t="s">
+        <v>974</v>
+      </c>
+      <c r="J359" s="10"/>
+      <c r="K359" s="10" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" s="10" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B360" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C360" s="10" t="s">
+        <v>971</v>
+      </c>
+      <c r="D360" s="10" t="s">
+        <v>975</v>
+      </c>
+      <c r="E360" s="10" t="s">
         <v>979</v>
+      </c>
+      <c r="F360" s="10">
+        <f>ROW()</f>
+        <v>360</v>
+      </c>
+      <c r="G360" s="10" t="s">
+        <v>980</v>
+      </c>
+      <c r="H360" s="10"/>
+      <c r="I360" s="10" t="s">
+        <v>975</v>
+      </c>
+      <c r="J360" s="10"/>
+      <c r="K360" s="10" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A361" s="10" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B361" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C361" s="10" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D361" s="10" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E361" s="10" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F361" s="10">
+        <f>ROW()</f>
+        <v>361</v>
+      </c>
+      <c r="G361" s="10" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H361" s="10"/>
+      <c r="I361" s="10" t="s">
+        <v>1456</v>
+      </c>
+      <c r="J361" s="10"/>
+      <c r="K361" s="10" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A362" s="10" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B362" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C362" s="10" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D362" s="10" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E362" s="10" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F362" s="10">
+        <f>ROW()</f>
+        <v>362</v>
+      </c>
+      <c r="G362" s="10" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H362" s="10"/>
+      <c r="I362" s="10" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J362" s="10"/>
+      <c r="K362" s="10" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" s="10" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B363" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C363" s="10" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D363" s="10" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E363" s="10" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F363" s="10">
+        <f>ROW()</f>
+        <v>363</v>
+      </c>
+      <c r="G363" s="10" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H363" s="10"/>
+      <c r="I363" s="10" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J363" s="10"/>
+      <c r="K363" s="10" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" s="10" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B364" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C364" s="10" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D364" s="10" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E364" s="10" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F364" s="10">
+        <f>ROW()</f>
+        <v>364</v>
+      </c>
+      <c r="G364" s="10" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H364" s="10"/>
+      <c r="I364" s="10" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J364" s="10"/>
+      <c r="K364" s="10" t="s">
+        <v>1490</v>
       </c>
     </row>
   </sheetData>
